--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3006.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3006.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176540472022196</v>
+        <v>1.32297956943512</v>
       </c>
       <c r="B1">
-        <v>2.419752975457825</v>
+        <v>1.550219416618347</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.990261435508728</v>
       </c>
       <c r="D1">
-        <v>2.30735374003782</v>
+        <v>2.716326236724854</v>
       </c>
       <c r="E1">
-        <v>1.201188351697364</v>
+        <v>6.544262409210205</v>
       </c>
     </row>
   </sheetData>
